--- a/ga_setting_2.xlsx
+++ b/ga_setting_2.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="component" sheetId="2" r:id="rId2"/>
+    <sheet name="setting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>Fracture Toughness</t>
     <phoneticPr fontId="1"/>
@@ -306,6 +307,38 @@
   </si>
   <si>
     <t>Parameter name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of gene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of individuals</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recommendation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of mutantation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>proberbility of crossover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5-0.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.05-0.3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -709,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -928,7 +961,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2954,4 +2987,106 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>49.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ga_setting_2.xlsx
+++ b/ga_setting_2.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="parameter" sheetId="1" r:id="rId1"/>
     <sheet name="component" sheetId="2" r:id="rId2"/>
+    <sheet name="setting" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>Fracture Toughness</t>
     <phoneticPr fontId="1"/>
@@ -306,13 +307,90 @@
   </si>
   <si>
     <t>Parameter name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of populations (generations)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of individuals
+ in population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of mutation
+ of individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of mutation
+ of each gene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number of gene
+ of individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>probability of crossover
+ of individual</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num_gene</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num_generation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num_population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cxpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mutpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>indpb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>variable name in program</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setting value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recommend value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.05 - 0.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.5 - 0.9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.3 - 0.5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,6 +475,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -928,7 +1021,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2954,4 +3047,115 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="7">
+        <v>500</v>
+      </c>
+      <c r="D3" s="7">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="8">
+        <v>500</v>
+      </c>
+      <c r="D4" s="8">
+        <v>100</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>